--- a/Materiales Proyectos.xlsx
+++ b/Materiales Proyectos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Wall E" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Lagarto" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Propeller LED Analog clock" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Metro Multifuncional" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Carrito" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t xml:space="preserve">Lista de materiales</t>
   </si>
@@ -108,24 +109,6 @@
     <t xml:space="preserve">Tornillo Stovebolt 3/16 x 1/2 </t>
   </si>
   <si>
-    <t xml:space="preserve">/*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este codigo manipula un brazo Robotico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDICIONES: El brazo solo puede moverse en forma de L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debido a la mecanica del mismo, no permite estirar por completo el brazo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA: 05/02/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.thingiverse.com/thing:1009659</t>
   </si>
   <si>
@@ -235,6 +218,33 @@
   </si>
   <si>
     <t xml:space="preserve">Botones capacitivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruedas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base de acrilico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caja de 4pilas AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja de pila 9v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pila AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pila 9v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rueda loca</t>
   </si>
 </sst>
 </file>
@@ -244,11 +254,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -267,98 +278,24 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -366,59 +303,18 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -426,23 +322,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,72 +347,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,50 +369,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -594,7 +407,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -602,7 +415,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -610,7 +423,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -639,8 +452,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,7 +463,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,10 +585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -883,36 +700,6 @@
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -992,18 +779,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>6</v>
@@ -1011,13 +798,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
@@ -1025,7 +812,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1110,15 +897,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1195,13 +982,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1209,7 +996,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
@@ -1217,7 +1004,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>8</v>
@@ -1225,7 +1012,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1233,25 +1020,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1259,7 +1046,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5</v>
@@ -1267,7 +1054,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1275,12 +1062,12 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1132,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1354,12 +1141,12 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1367,7 +1154,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -1375,7 +1162,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1383,7 +1170,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -1391,7 +1178,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -1399,7 +1186,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1407,7 +1194,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1415,7 +1202,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1423,7 +1210,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1431,7 +1218,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -1439,7 +1226,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -1447,12 +1234,12 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -1460,7 +1247,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -1481,4 +1268,170 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>